--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2074346.776565218</v>
+        <v>-2076929.808634946</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15412572.03797908</v>
+        <v>15412572.03797907</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.8731589524261</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>75.05378178251506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>139.7913471991652</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>37.10622217165588</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>161.6450291239015</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>102.4146607044168</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>100.3133985593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>99.35852971829993</v>
+        <v>148.5456505119198</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>53.54735467376803</v>
       </c>
       <c r="S10" t="n">
-        <v>9.364731907542755</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>82.52140782073306</v>
+        <v>78.91051008678194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.453391420151547</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.83255574579454</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>96.03245356584283</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.5813113004297</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>60.25690685266616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>153.5842618151915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.038513614975</v>
+        <v>171.0385136149756</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316655</v>
+        <v>158.4533545316661</v>
       </c>
       <c r="D28" t="n">
-        <v>139.82200645125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796069</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559689</v>
+        <v>117.240307539832</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253065</v>
+        <v>156.7306717253071</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792616</v>
+        <v>131.5012462792622</v>
       </c>
       <c r="I28" t="n">
-        <v>38.46153546580555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315997</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346823</v>
+        <v>172.2328194346829</v>
       </c>
       <c r="T28" t="n">
-        <v>208.611983760326</v>
+        <v>208.6119837603266</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222818</v>
+        <v>277.3910078222824</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568657</v>
+        <v>243.3441767568663</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>277.7295317696293</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220748</v>
+        <v>216.9161888220754</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851325</v>
+        <v>209.7911867851331</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
         <v>56.98118882652581</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1091.323932370578</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>722.3614154301667</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>364.0957168234162</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0957168234162</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839477</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927149</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1868.063104410512</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1477.9237724347</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064629</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>440.3537502173316</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>290.2371108049958</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>142.3240172226027</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>142.3240172226027</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4486,7 +4486,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4495,13 +4495,13 @@
         <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588482</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886954</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068852</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
         <v>907.9662384596438</v>
@@ -4522,16 +4522,16 @@
         <v>609.2899331452385</v>
       </c>
       <c r="V4" t="n">
-        <v>354.6054449393516</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="W4" t="n">
-        <v>213.4020639300938</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="X4" t="n">
-        <v>213.4020639300938</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>609.2899331452385</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.236214140706</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C5" t="n">
-        <v>926.2736972002942</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="D5" t="n">
-        <v>568.0079985935438</v>
+        <v>1026.564081015895</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>640.7758284176512</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>229.7899236280436</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.8744564335971</v>
+        <v>484.5540527820584</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>627.8744564335971</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W7" t="n">
-        <v>627.8744564335971</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X7" t="n">
-        <v>627.8744564335971</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y7" t="n">
-        <v>627.8744564335971</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142817</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C8" t="n">
-        <v>1303.228924202405</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D8" t="n">
-        <v>1303.228924202405</v>
+        <v>1310.91598583947</v>
       </c>
       <c r="E8" t="n">
-        <v>917.440671604161</v>
+        <v>925.1277332412255</v>
       </c>
       <c r="F8" t="n">
-        <v>506.4547668145535</v>
+        <v>514.141828451618</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="S10" t="n">
-        <v>821.5972234165788</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T10" t="n">
-        <v>599.8306079861048</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>310.7277411117484</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>310.7277411117484</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958738</v>
+        <v>733.4550657171314</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679669</v>
+        <v>564.5188827892246</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588919</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261135</v>
+        <v>915.1035305473712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.868625753638</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257311</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
@@ -5425,61 +5425,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2156.827640693835</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1867.752414038033</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1613.067925832146</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795185</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.868625753638</v>
+        <v>878.3568999154073</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1889.844516861991</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2313.467666357059</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536382</v>
+        <v>781.3544215660704</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257313</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133955</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310024</v>
+        <v>464.5051450557704</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2337.284991357604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.683526380545</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.608299724743</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.923811518856</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.506641481895</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.517090583878</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>878.3568999154066</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459585</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180516</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>301.5721730233228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>154.6822255254124</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761983</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,55 +5984,55 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,16 +6072,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.583792693556</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>680.4481746984131</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860774</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036843</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1002.136755966017</v>
+        <v>663.4384611046056</v>
       </c>
       <c r="C28" t="n">
-        <v>842.0828624996883</v>
+        <v>503.3845676382762</v>
       </c>
       <c r="D28" t="n">
-        <v>700.8485125489308</v>
+        <v>503.3845676382762</v>
       </c>
       <c r="E28" t="n">
-        <v>561.8177084281158</v>
+        <v>503.3845676382762</v>
       </c>
       <c r="F28" t="n">
-        <v>423.8100503917835</v>
+        <v>384.9600145677388</v>
       </c>
       <c r="G28" t="n">
-        <v>265.4962405682415</v>
+        <v>226.6462047441963</v>
       </c>
       <c r="H28" t="n">
-        <v>132.6666988720179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795884</v>
+        <v>182.7582133795877</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064197</v>
+        <v>453.1530078064184</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836525</v>
+        <v>852.2571338836507</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.97236851598</v>
+        <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077281</v>
+        <v>1709.087772077278</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687558</v>
+        <v>2087.322584687555</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.70357216241</v>
+        <v>2388.703572162406</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790602</v>
+        <v>2516.607338790598</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790602</v>
+        <v>2458.443924504577</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.634793907084</v>
+        <v>2284.471379621059</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.915618391603</v>
+        <v>2073.752204105578</v>
       </c>
       <c r="U28" t="n">
-        <v>1851.722681197379</v>
+        <v>1793.559266911353</v>
       </c>
       <c r="V28" t="n">
-        <v>1605.92048245307</v>
+        <v>1547.757068167044</v>
       </c>
       <c r="W28" t="n">
-        <v>1605.92048245307</v>
+        <v>1267.22218759166</v>
       </c>
       <c r="X28" t="n">
-        <v>1386.813221016631</v>
+        <v>1048.114926155221</v>
       </c>
       <c r="Y28" t="n">
-        <v>1174.902931334679</v>
+        <v>836.2046364732678</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,28 +6838,28 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345471</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311324</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,37 +7187,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7257,19 +7257,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>167.8579417260429</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>90.97202647651307</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>146.7316511374258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.0940651974793</v>
+        <v>69.70496293143042</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229374</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>176.3785887617857</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>83.79952661609447</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.44497470121493</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>105.2672314396027</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,13 +24178,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.66255928343638</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512506</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796075</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>19.38727391613758</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>34.01083428579767</v>
+        <v>72.47236975160382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315938</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696287</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085835.225316873</v>
+        <v>1085835.225316874</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1345820.600683794</v>
+        <v>1345820.600683793</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1345820.600683794</v>
+        <v>1345820.600683793</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374985</v>
+        <v>65808.19547374983</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80714.65996900057</v>
+      </c>
+      <c r="I2" t="n">
         <v>80714.65996900058</v>
       </c>
-      <c r="G2" t="n">
-        <v>80714.6599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.6599690006</v>
-      </c>
       <c r="J2" t="n">
-        <v>81217.80383555169</v>
+        <v>81217.80383555162</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508473</v>
+        <v>224565.9756508468</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006193</v>
+        <v>12392.94474006241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569855</v>
+        <v>7034.77325356941</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006192</v>
+        <v>12392.94474006239</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405253</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
+        <v>14826.69604186732</v>
+      </c>
+      <c r="G4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186734</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186738</v>
@@ -26439,22 +26439,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>17720.18476944088</v>
+        <v>17720.18476944069</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="L4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="N4" t="n">
         <v>22817.55530496085</v>
       </c>
-      <c r="M4" t="n">
-        <v>22817.55530496085</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496088</v>
-      </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496084</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.7877647251</v>
+        <v>101861.787764725</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
-        <v>-119426.5076790175</v>
+        <v>-119426.5076790174</v>
       </c>
       <c r="D6" t="n">
         <v>-119426.5076790175</v>
       </c>
       <c r="E6" t="n">
-        <v>-360647.0277041289</v>
+        <v>-360681.7656295652</v>
       </c>
       <c r="F6" t="n">
-        <v>-35234.56589677389</v>
+        <v>-35269.30382220952</v>
       </c>
       <c r="G6" t="n">
-        <v>-35234.56589677386</v>
+        <v>-35269.30382220955</v>
       </c>
       <c r="H6" t="n">
-        <v>-35234.56589677389</v>
+        <v>-35269.30382220962</v>
       </c>
       <c r="I6" t="n">
-        <v>-35234.56589677387</v>
+        <v>-35269.30382220958</v>
       </c>
       <c r="J6" t="n">
-        <v>-262930.1443494616</v>
+        <v>-262952.3036782329</v>
       </c>
       <c r="K6" t="n">
-        <v>-56270.4389125098</v>
+        <v>-56270.4389125103</v>
       </c>
       <c r="L6" t="n">
         <v>-43877.49417244786</v>
       </c>
       <c r="M6" t="n">
-        <v>-128932.5221079596</v>
+        <v>-128932.5221079597</v>
       </c>
       <c r="N6" t="n">
-        <v>-43877.49417244791</v>
+        <v>-43877.49417244788</v>
       </c>
       <c r="O6" t="n">
-        <v>-50912.26742601766</v>
+        <v>-50912.26742601728</v>
       </c>
       <c r="P6" t="n">
-        <v>-56270.43891250977</v>
+        <v>-56270.43891251025</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507741</v>
+        <v>15.49118092507801</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962319</v>
+        <v>8.793466566961763</v>
       </c>
       <c r="P2" t="n">
-        <v>15.4911809250774</v>
+        <v>15.49118092507799</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507741</v>
+        <v>15.49118092507801</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>344.8241479006059</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>249.2766965295519</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>64.83216039421106</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>151.824244764528</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>311.5631959351535</v>
+        <v>262.3760751415336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>35.38479799627932</v>
       </c>
       <c r="S10" t="n">
-        <v>180.4042934238991</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.843005748014548e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.829530708083867e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962305</v>
+        <v>8.793466566961717</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>606.5820696732821</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>151.9914336104081</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,13 +32315,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32470,7 +32470,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>500.4415752611932</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32792,19 +32792,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159439</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760391</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>345.6771571865338</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,28 +34445,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>463.9858252288377</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>20.64972152707474</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,13 +35963,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>357.8453308167487</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991567</v>
+        <v>89.83994982991507</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765972</v>
+        <v>273.1260549765967</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860937</v>
+        <v>403.1354808860931</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680074</v>
+        <v>435.0658935680069</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568697</v>
+        <v>430.4195995568692</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730077</v>
+        <v>382.0553662730072</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735873</v>
+        <v>304.4252398735867</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668606</v>
+        <v>129.1957238668601</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961649</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>207.1227774066596</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
